--- a/data/quests.xlsx
+++ b/data/quests.xlsx
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -939,261 +939,6 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/quests.xlsx
+++ b/data/quests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -82,6 +82,42 @@
   </si>
   <si>
     <t>userAmountNeed</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Welcome adventurer! You have been hired for an important mission: kill the bats that have invaded a nearby cave! The villagers are terrified of the constant flapping of the bats and need someone to take them out before they do more damage.</t>
+  </si>
+  <si>
+    <t>A nearby village is being terrorized by goblins, who have stolen their food and supplies. You have been hired to put a stop to their raids and eliminate the goblin threat. Be careful, as goblins are notorious for their cunning and may set traps to ambush you.</t>
+  </si>
+  <si>
+    <t>A pack of wolves has been preying on the local livestock, and the villagers fear for their safety. Your mission is to hunt down and eliminate the pack, but be warned - wolves are fierce and territorial creatures.</t>
+  </si>
+  <si>
+    <t>The ruins of an ancient castle are said to be haunted by the spirits of the knights who once lived there. The villagers have reported sightings of skeletons wandering the grounds at night. Your mission is to explore the castle and put the restless spirits to rest.</t>
+  </si>
+  <si>
+    <t>A mysterious plague has swept through the land, raising the dead as zombies. You have been hired to put an end to the zombie menace before it spreads further.</t>
+  </si>
+  <si>
+    <t>The zombies in the area seem to be gathering around a mysterious figure - the zombie king. You have been tasked with eliminating the zombie king and putting an end to his reign of terror.</t>
+  </si>
+  <si>
+    <t>A group of orcs has been raiding nearby villages and taking prisoners. You have been hired to rescue the prisoners and put an end to the orc raids.</t>
+  </si>
+  <si>
+    <t>A giant spider has been spotted in the nearby forest, and the villagers fear for their safety. Your mission is to track down and eliminate the spider, but be careful - it is said to be incredibly venomous.</t>
+  </si>
+  <si>
+    <t>A notorious outlaw gang has been causing trouble in the area, robbing travelers and terrorizing the locals. You have been hired to bring them to justice.</t>
+  </si>
+  <si>
+    <t>The orcs in the area seem to be gathering around a powerful leader - the orc king. You have been tasked with eliminating the orc king and putting an end to his reign of terror.</t>
+  </si>
+  <si>
+    <t>As a player, you have been training hard to improve your skills and abilities. Your mission is to test your abilities in combat and prove yourself as a capable adventurer.</t>
   </si>
 </sst>
 </file>
@@ -463,62 +499,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="52.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -526,30 +566,33 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
       <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
         <v>20</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>50</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -557,32 +600,35 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
       <c r="F3" s="7">
-        <f>F2*2</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G3" s="7">
         <f>G2*2</f>
+        <v>40</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2*2</f>
         <v>100</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3"/>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -590,32 +636,35 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
       <c r="F4" s="7">
-        <f>F3*2</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
         <f>G3*2</f>
+        <v>80</v>
+      </c>
+      <c r="H4" s="7">
+        <f>H3*2</f>
         <v>200</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -623,32 +672,35 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F11" si="0">F4*2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G11" si="0">G4*2</f>
         <v>160</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G11" si="1">G4*2</f>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H11" si="1">H4*2</f>
         <v>400</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -656,32 +708,35 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <v>12</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
       <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -689,32 +744,35 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
       <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -722,32 +780,35 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
       <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>1280</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -755,32 +816,35 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>18</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
       <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -788,32 +852,35 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="7">
         <v>20</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
       <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>5120</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>12800</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -821,32 +888,35 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>25</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
       <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>10240</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>25600</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11"/>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -854,30 +924,33 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
       <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
       <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
         <v>15000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -885,30 +958,33 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
       <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
       <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
         <v>40000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>25</v>
       </c>
-      <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -916,28 +992,31 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
       <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
         <v>50</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
       <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <v>100000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>100</v>
       </c>
-      <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
+      <c r="N14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/quests.xlsx
+++ b/data/quests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>As a player, you have been training hard to improve your skills and abilities. Your mission is to test your abilities in combat and prove yourself as a capable adventurer.</t>
+  </si>
+  <si>
+    <t>levelRequired</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -510,21 +513,22 @@
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -534,31 +538,34 @@
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -568,31 +575,34 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
       <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
         <v>20</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>50</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2"/>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -602,33 +612,36 @@
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
       <c r="G3" s="7">
-        <f>G2*2</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H3" s="7">
         <f>H2*2</f>
+        <v>40</v>
+      </c>
+      <c r="I3" s="7">
+        <f>I2*2</f>
         <v>100</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3"/>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -638,33 +651,36 @@
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
       <c r="G4" s="7">
-        <f>G3*2</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <f>H3*2</f>
+        <v>80</v>
+      </c>
+      <c r="I4" s="7">
+        <f>I3*2</f>
         <v>200</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4"/>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -674,33 +690,36 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G11" si="0">G4*2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H11" si="0">H4*2</f>
         <v>160</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" ref="H5:H11" si="1">H4*2</f>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I11" si="1">I4*2</f>
         <v>400</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5"/>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -710,33 +729,36 @@
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
       <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6"/>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -746,33 +768,36 @@
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
       <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7"/>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -782,33 +807,36 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>16</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
       <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>1280</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8"/>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -818,33 +846,36 @@
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>18</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
       <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9"/>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -854,33 +885,36 @@
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
       <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>5120</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>12800</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10"/>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -890,33 +924,36 @@
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>25</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
       <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>10240</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>25600</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11"/>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -926,31 +963,34 @@
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
       <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
       <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
         <v>15000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>10</v>
       </c>
-      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -960,31 +1000,34 @@
       <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
       <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
       <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
         <v>40000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>25</v>
       </c>
-      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -994,29 +1037,32 @@
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
       <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>50</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
         <v>100000</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>100</v>
       </c>
-      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
+      <c r="O14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
